--- a/static/excel_templates/field_payment_template.xlsx
+++ b/static/excel_templates/field_payment_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\20160116_내자료\007_업무_영업팀\103_임시_관리팀\101_용역비 청구\001_현장팀\002_2025년\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영준\Documents\GitHub\Kcqt_Csi_project\static\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>현장시험 및 시료수거 내역</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>공제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,6 +285,14 @@
   </si>
   <si>
     <t>순번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공제(-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체금액의 10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,7 +303,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,8 +422,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -685,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +785,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -782,18 +800,12 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -866,69 +878,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,6 +901,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +955,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="그림!$J$47:$N$48" spid="_x0000_s1052"/>
+                  <a14:cameraTool cellRange="그림!$J$47:$N$48" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1039,7 +1015,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$P$4:$T$6" spid="_x0000_s1053"/>
+                  <a14:cameraTool cellRange="$P$4:$T$6" spid="_x0000_s1065"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1343,11 +1319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:U253"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1355,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="50"/>
+      <c r="K1" s="47"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1390,27 +1366,27 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
+      <c r="A2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
     </row>
     <row r="3" spans="1:21" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1421,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>3</v>
@@ -1445,30 +1421,30 @@
         <v>8</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="35" t="s">
+      <c r="T4" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>59</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>9</v>
@@ -1486,30 +1462,29 @@
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="37">
+      <c r="J5" s="65"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="34">
         <f>COUNTIF(D5:D90,P4)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="35">
         <f>COUNTIF(D5:D90,Q4)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="35">
         <f>COUNTIF(D5:D90,R4)</f>
         <v>0</v>
       </c>
-      <c r="S5" s="38">
-        <f>COUNTIF(D5:D90,S4)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="39">
-        <f>SUM(P5:S5)</f>
+      <c r="S5" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="36">
+        <f>SUM(P5:R5)</f>
         <v>0</v>
       </c>
       <c r="U5" s="16">
@@ -1529,30 +1504,30 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="40">
+      <c r="J6" s="65"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="37">
         <f>SUMIFS($U$5:$U$90,$D$5:$D$90,"현장시험")</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="38">
         <f>SUMIFS($U$5:$U$90,$D$5:$D$90,"시료수거")</f>
         <v>0</v>
       </c>
-      <c r="R6" s="41">
+      <c r="R6" s="38">
         <f>SUMIFS($U$5:$U$90,$D$5:$D$90,"기타")</f>
         <v>0</v>
       </c>
-      <c r="S6" s="42">
-        <f>SUMIFS($U$5:$U$90,$D$5:$D$90,"공제")</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="70">
-        <f>SUM(P6:S6)</f>
+      <c r="S6" s="39">
+        <f>SUM(P6:R6)*0.1</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="57">
+        <f>SUM(P6:R6)-S6</f>
         <v>0</v>
       </c>
       <c r="U6" s="16">
@@ -1572,16 +1547,16 @@
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
       <c r="U7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1599,16 +1574,16 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
       <c r="U8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1626,16 +1601,16 @@
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
       <c r="U9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1653,16 +1628,16 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
       <c r="U10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1680,16 +1655,16 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
       <c r="U11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1707,16 +1682,16 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
       <c r="U12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1734,16 +1709,16 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
       <c r="U13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1761,16 +1736,16 @@
       <c r="G14" s="18"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
       <c r="U14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1788,16 +1763,16 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
       <c r="U15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1815,16 +1790,16 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
       <c r="U16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1842,16 +1817,16 @@
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
       <c r="U17" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1869,16 +1844,16 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
       <c r="U18" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1896,16 +1871,16 @@
       <c r="G19" s="18"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
       <c r="U19" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1923,16 +1898,16 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
       <c r="U20" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1950,16 +1925,16 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
       <c r="U21" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1977,16 +1952,16 @@
       <c r="G22" s="18"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
       <c r="U22" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2004,16 +1979,16 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
       <c r="U23" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2031,16 +2006,16 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="52"/>
-      <c r="S24" s="52"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
       <c r="U24" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2058,16 +2033,16 @@
       <c r="G25" s="18"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="52"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
       <c r="U25" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2085,16 +2060,16 @@
       <c r="G26" s="18"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
       <c r="U26" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2112,16 +2087,16 @@
       <c r="G27" s="18"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
       <c r="U27" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2139,16 +2114,16 @@
       <c r="G28" s="18"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
       <c r="U28" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2166,16 +2141,16 @@
       <c r="G29" s="18"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
       <c r="U29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2193,16 +2168,16 @@
       <c r="G30" s="18"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
       <c r="U30" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2220,16 +2195,16 @@
       <c r="G31" s="18"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
       <c r="U31" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2247,16 +2222,16 @@
       <c r="G32" s="18"/>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
       <c r="U32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2274,16 +2249,16 @@
       <c r="G33" s="18"/>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
       <c r="U33" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2301,16 +2276,16 @@
       <c r="G34" s="18"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
       <c r="U34" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2328,16 +2303,16 @@
       <c r="G35" s="18"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
       <c r="U35" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2355,16 +2330,16 @@
       <c r="G36" s="18"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
       <c r="U36" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2382,16 +2357,16 @@
       <c r="G37" s="18"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
       <c r="U37" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2409,16 +2384,16 @@
       <c r="G38" s="20"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
-      <c r="R38" s="52"/>
-      <c r="S38" s="52"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
       <c r="U38" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2436,16 +2411,16 @@
       <c r="G39" s="20"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
       <c r="U39" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2463,16 +2438,16 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
       <c r="U40" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2490,16 +2465,16 @@
       <c r="G41" s="21"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
       <c r="U41" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2517,16 +2492,16 @@
       <c r="G42" s="18"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
       <c r="U42" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2544,16 +2519,16 @@
       <c r="G43" s="18"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="52"/>
-      <c r="Q43" s="52"/>
-      <c r="R43" s="52"/>
-      <c r="S43" s="52"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
       <c r="U43" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2571,16 +2546,16 @@
       <c r="G44" s="18"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="52"/>
-      <c r="O44" s="52"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
-      <c r="R44" s="52"/>
-      <c r="S44" s="52"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="49"/>
       <c r="U44" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2598,16 +2573,16 @@
       <c r="G45" s="18"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="52"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
-      <c r="R45" s="52"/>
-      <c r="S45" s="52"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
       <c r="U45" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2625,16 +2600,16 @@
       <c r="G46" s="18"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
       <c r="U46" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2652,16 +2627,16 @@
       <c r="G47" s="14"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
       <c r="U47" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2679,16 +2654,16 @@
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
+      <c r="P48" s="50"/>
+      <c r="Q48" s="50"/>
+      <c r="R48" s="50"/>
+      <c r="S48" s="50"/>
       <c r="U48" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2706,16 +2681,16 @@
       <c r="G49" s="14"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
       <c r="U49" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2733,16 +2708,16 @@
       <c r="G50" s="18"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="49"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="49"/>
       <c r="U50" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2760,16 +2735,16 @@
       <c r="G51" s="18"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="52"/>
-      <c r="Q51" s="52"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
       <c r="U51" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2787,16 +2762,16 @@
       <c r="G52" s="18"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
-      <c r="R52" s="52"/>
-      <c r="S52" s="52"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="49"/>
       <c r="U52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2814,16 +2789,16 @@
       <c r="G53" s="18"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="52"/>
-      <c r="O53" s="52"/>
-      <c r="P53" s="52"/>
-      <c r="Q53" s="52"/>
-      <c r="R53" s="52"/>
-      <c r="S53" s="52"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="49"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="49"/>
       <c r="U53" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2841,16 +2816,16 @@
       <c r="G54" s="18"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="49"/>
+      <c r="Q54" s="49"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="49"/>
       <c r="U54" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2868,16 +2843,16 @@
       <c r="G55" s="18"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="52"/>
-      <c r="O55" s="52"/>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="52"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="49"/>
+      <c r="S55" s="49"/>
       <c r="U55" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2895,16 +2870,16 @@
       <c r="G56" s="14"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="50"/>
+      <c r="M56" s="50"/>
+      <c r="N56" s="50"/>
+      <c r="O56" s="50"/>
+      <c r="P56" s="50"/>
+      <c r="Q56" s="50"/>
+      <c r="R56" s="50"/>
+      <c r="S56" s="50"/>
       <c r="U56" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2922,16 +2897,16 @@
       <c r="G57" s="14"/>
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
+      <c r="P57" s="50"/>
+      <c r="Q57" s="50"/>
+      <c r="R57" s="50"/>
+      <c r="S57" s="50"/>
       <c r="U57" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2949,16 +2924,16 @@
       <c r="G58" s="18"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="52"/>
-      <c r="O58" s="52"/>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="52"/>
-      <c r="S58" s="52"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="55"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
       <c r="U58" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2976,16 +2951,16 @@
       <c r="G59" s="18"/>
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="49"/>
       <c r="U59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2998,55 +2973,55 @@
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="27"/>
+      <c r="E60" s="26"/>
       <c r="F60" s="25"/>
       <c r="G60" s="14"/>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
-      <c r="R60" s="52"/>
-      <c r="S60" s="52"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="49"/>
       <c r="U60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="72">
+    <row r="61" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>57</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="52"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="52"/>
-      <c r="Q61" s="52"/>
-      <c r="R61" s="52"/>
-      <c r="S61" s="52"/>
-      <c r="U61" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9">
+      <c r="B61" s="11"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="49"/>
+      <c r="U61" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>58</v>
       </c>
       <c r="B62" s="11"/>
@@ -3057,23 +3032,23 @@
       <c r="G62" s="18"/>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="U62" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9">
+      <c r="J62" s="65"/>
+      <c r="K62" s="55"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="U62" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>59</v>
       </c>
       <c r="B63" s="11"/>
@@ -3084,77 +3059,77 @@
       <c r="G63" s="14"/>
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="52"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="52"/>
-      <c r="Q63" s="52"/>
-      <c r="R63" s="52"/>
-      <c r="S63" s="52"/>
-      <c r="U63" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60">
+      <c r="J63" s="65"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="U63" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>60</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="65"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="52"/>
-      <c r="U64" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="60">
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="55"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
+      <c r="Q64" s="49"/>
+      <c r="R64" s="49"/>
+      <c r="S64" s="49"/>
+      <c r="U64" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>61</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="65"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="U65" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9">
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="55"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="49"/>
+      <c r="S65" s="49"/>
+      <c r="U65" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
         <v>62</v>
       </c>
       <c r="B66" s="11"/>
@@ -3165,23 +3140,23 @@
       <c r="G66" s="18"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
-      <c r="R66" s="52"/>
-      <c r="S66" s="52"/>
-      <c r="U66" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9">
+      <c r="J66" s="65"/>
+      <c r="K66" s="55"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="49"/>
+      <c r="S66" s="49"/>
+      <c r="U66" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
         <v>63</v>
       </c>
       <c r="B67" s="11"/>
@@ -3192,44 +3167,44 @@
       <c r="G67" s="18"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="52"/>
-      <c r="R67" s="52"/>
-      <c r="S67" s="52"/>
-      <c r="U67" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9">
+      <c r="J67" s="65"/>
+      <c r="K67" s="55"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="49"/>
+      <c r="S67" s="49"/>
+      <c r="U67" s="60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" s="59" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
         <v>64</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="80"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="13"/>
       <c r="G68" s="18"/>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
-      <c r="R68" s="52"/>
-      <c r="S68" s="52"/>
-      <c r="U68" s="16">
+      <c r="J68" s="65"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="49"/>
+      <c r="S68" s="49"/>
+      <c r="U68" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3246,16 +3221,16 @@
       <c r="G69" s="18"/>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="52"/>
-      <c r="Q69" s="52"/>
-      <c r="R69" s="52"/>
-      <c r="S69" s="52"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+      <c r="P69" s="49"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="49"/>
+      <c r="S69" s="49"/>
       <c r="U69" s="16">
         <f t="shared" ref="U69:U90" si="1">H69+I69</f>
         <v>0</v>
@@ -3273,16 +3248,16 @@
       <c r="G70" s="20"/>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
-      <c r="R70" s="52"/>
-      <c r="S70" s="52"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="55"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
       <c r="U70" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3300,16 +3275,16 @@
       <c r="G71" s="20"/>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="52"/>
-      <c r="O71" s="52"/>
-      <c r="P71" s="52"/>
-      <c r="Q71" s="52"/>
-      <c r="R71" s="52"/>
-      <c r="S71" s="52"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
       <c r="U71" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3327,16 +3302,16 @@
       <c r="G72" s="21"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="52"/>
-      <c r="P72" s="52"/>
-      <c r="Q72" s="52"/>
-      <c r="R72" s="52"/>
-      <c r="S72" s="52"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
       <c r="U72" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3354,16 +3329,16 @@
       <c r="G73" s="18"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="52"/>
-      <c r="O73" s="52"/>
-      <c r="P73" s="52"/>
-      <c r="Q73" s="52"/>
-      <c r="R73" s="52"/>
-      <c r="S73" s="52"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
+      <c r="Q73" s="49"/>
+      <c r="R73" s="49"/>
+      <c r="S73" s="49"/>
       <c r="U73" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3381,16 +3356,16 @@
       <c r="G74" s="18"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="52"/>
-      <c r="M74" s="52"/>
-      <c r="N74" s="52"/>
-      <c r="O74" s="52"/>
-      <c r="P74" s="52"/>
-      <c r="Q74" s="52"/>
-      <c r="R74" s="52"/>
-      <c r="S74" s="52"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
       <c r="U74" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3408,16 +3383,16 @@
       <c r="G75" s="18"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="52"/>
-      <c r="M75" s="52"/>
-      <c r="N75" s="52"/>
-      <c r="O75" s="52"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="52"/>
-      <c r="R75" s="52"/>
-      <c r="S75" s="52"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="49"/>
       <c r="U75" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3435,16 +3410,16 @@
       <c r="G76" s="18"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="52"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="52"/>
-      <c r="R76" s="52"/>
-      <c r="S76" s="52"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="55"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="49"/>
       <c r="U76" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3462,16 +3437,16 @@
       <c r="G77" s="18"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="52"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="52"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="52"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+      <c r="P77" s="49"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="49"/>
       <c r="U77" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3489,16 +3464,16 @@
       <c r="G78" s="14"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="53"/>
-      <c r="M78" s="53"/>
-      <c r="N78" s="53"/>
-      <c r="O78" s="53"/>
-      <c r="P78" s="53"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="53"/>
-      <c r="S78" s="53"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
       <c r="U78" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3516,16 +3491,16 @@
       <c r="G79" s="14"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="53"/>
-      <c r="M79" s="53"/>
-      <c r="N79" s="53"/>
-      <c r="O79" s="53"/>
-      <c r="P79" s="53"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="53"/>
-      <c r="S79" s="53"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="S79" s="50"/>
       <c r="U79" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3543,16 +3518,16 @@
       <c r="G80" s="14"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="53"/>
-      <c r="M80" s="53"/>
-      <c r="N80" s="53"/>
-      <c r="O80" s="53"/>
-      <c r="P80" s="53"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="53"/>
-      <c r="S80" s="53"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="50"/>
+      <c r="M80" s="50"/>
+      <c r="N80" s="50"/>
+      <c r="O80" s="50"/>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="50"/>
+      <c r="S80" s="50"/>
       <c r="U80" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3570,16 +3545,16 @@
       <c r="G81" s="18"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="52"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="52"/>
-      <c r="R81" s="52"/>
-      <c r="S81" s="52"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="55"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="49"/>
       <c r="U81" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3597,16 +3572,16 @@
       <c r="G82" s="18"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="52"/>
-      <c r="R82" s="52"/>
-      <c r="S82" s="52"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="55"/>
+      <c r="L82" s="49"/>
+      <c r="M82" s="49"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="49"/>
+      <c r="Q82" s="49"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="49"/>
       <c r="U82" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3624,16 +3599,16 @@
       <c r="G83" s="18"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="52"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
-      <c r="R83" s="52"/>
-      <c r="S83" s="52"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+      <c r="P83" s="49"/>
+      <c r="Q83" s="49"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="49"/>
       <c r="U83" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3651,16 +3626,16 @@
       <c r="G84" s="18"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="58"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52"/>
-      <c r="R84" s="52"/>
-      <c r="S84" s="52"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="55"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
       <c r="U84" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3678,16 +3653,16 @@
       <c r="G85" s="18"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="58"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="52"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="52"/>
-      <c r="R85" s="52"/>
-      <c r="S85" s="52"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="55"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
       <c r="U85" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3705,16 +3680,16 @@
       <c r="G86" s="18"/>
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="58"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="52"/>
-      <c r="R86" s="52"/>
-      <c r="S86" s="52"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="55"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
       <c r="U86" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3732,16 +3707,16 @@
       <c r="G87" s="14"/>
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="53"/>
-      <c r="M87" s="53"/>
-      <c r="N87" s="53"/>
-      <c r="O87" s="53"/>
-      <c r="P87" s="53"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="53"/>
-      <c r="S87" s="53"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="50"/>
+      <c r="Q87" s="50"/>
+      <c r="R87" s="50"/>
+      <c r="S87" s="50"/>
       <c r="U87" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3759,16 +3734,16 @@
       <c r="G88" s="14"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="53"/>
-      <c r="M88" s="53"/>
-      <c r="N88" s="53"/>
-      <c r="O88" s="53"/>
-      <c r="P88" s="53"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="53"/>
-      <c r="S88" s="53"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="50"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="50"/>
+      <c r="S88" s="50"/>
       <c r="U88" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3786,16 +3761,16 @@
       <c r="G89" s="18"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="52"/>
-      <c r="M89" s="52"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="52"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="52"/>
-      <c r="R89" s="52"/>
-      <c r="S89" s="52"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="55"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
       <c r="U89" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3813,16 +3788,16 @@
       <c r="G90" s="18"/>
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="52"/>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="55"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
       <c r="U90" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3833,21 +3808,21 @@
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="27"/>
       <c r="G91" s="14"/>
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="53"/>
-      <c r="M91" s="53"/>
-      <c r="N91" s="53"/>
-      <c r="O91" s="53"/>
-      <c r="P91" s="53"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="53"/>
-      <c r="S91" s="53"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="53"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
       <c r="U91" s="16">
         <f t="shared" ref="U91:U119" si="2">H91+I91</f>
         <v>0</v>
@@ -3858,21 +3833,21 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
-      <c r="E92" s="29"/>
+      <c r="E92" s="28"/>
       <c r="F92" s="13"/>
       <c r="G92" s="14"/>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="55"/>
-      <c r="L92" s="52"/>
-      <c r="M92" s="52"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="52"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="52"/>
-      <c r="R92" s="52"/>
-      <c r="S92" s="52"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
       <c r="U92" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3883,21 +3858,21 @@
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
-      <c r="E93" s="29"/>
+      <c r="E93" s="28"/>
       <c r="F93" s="13"/>
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="55"/>
-      <c r="L93" s="52"/>
-      <c r="M93" s="52"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="52"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="52"/>
-      <c r="R93" s="52"/>
-      <c r="S93" s="52"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
       <c r="U93" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3908,21 +3883,21 @@
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
-      <c r="E94" s="29"/>
+      <c r="E94" s="28"/>
       <c r="F94" s="13"/>
       <c r="G94" s="14"/>
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="52"/>
-      <c r="M94" s="52"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="52"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="52"/>
-      <c r="S94" s="52"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
       <c r="U94" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3933,21 +3908,21 @@
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="57"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="54"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="54"/>
-      <c r="S95" s="54"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
       <c r="U95" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3958,21 +3933,21 @@
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="57"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="54"/>
-      <c r="Q96" s="54"/>
-      <c r="R96" s="54"/>
-      <c r="S96" s="54"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
+      <c r="R96" s="51"/>
+      <c r="S96" s="51"/>
       <c r="U96" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3983,21 +3958,21 @@
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="57"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="54"/>
-      <c r="Q97" s="54"/>
-      <c r="R97" s="54"/>
-      <c r="S97" s="54"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
+      <c r="R97" s="51"/>
+      <c r="S97" s="51"/>
       <c r="U97" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4008,21 +3983,21 @@
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="32"/>
-      <c r="K98" s="57"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="54"/>
-      <c r="Q98" s="54"/>
-      <c r="R98" s="54"/>
-      <c r="S98" s="54"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="49"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
+      <c r="R98" s="51"/>
+      <c r="S98" s="51"/>
       <c r="U98" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4033,21 +4008,21 @@
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="32"/>
-      <c r="K99" s="57"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="54"/>
-      <c r="Q99" s="54"/>
-      <c r="R99" s="54"/>
-      <c r="S99" s="54"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="54"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
+      <c r="R99" s="51"/>
+      <c r="S99" s="51"/>
       <c r="U99" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4058,21 +4033,21 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="30"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="32"/>
-      <c r="K100" s="57"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="54"/>
+      <c r="L100" s="51"/>
+      <c r="M100" s="51"/>
+      <c r="N100" s="51"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="51"/>
+      <c r="Q100" s="51"/>
+      <c r="R100" s="51"/>
+      <c r="S100" s="51"/>
       <c r="U100" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4083,21 +4058,21 @@
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="32"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="54"/>
-      <c r="Q101" s="54"/>
-      <c r="R101" s="54"/>
-      <c r="S101" s="54"/>
+      <c r="E101" s="28"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="54"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
+      <c r="R101" s="51"/>
+      <c r="S101" s="51"/>
       <c r="U101" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4108,21 +4083,21 @@
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="30"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="32"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="54"/>
-      <c r="Q102" s="54"/>
-      <c r="R102" s="54"/>
-      <c r="S102" s="54"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="54"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
       <c r="U102" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4133,21 +4108,21 @@
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="32"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
+      <c r="R103" s="51"/>
+      <c r="S103" s="51"/>
       <c r="U103" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4158,21 +4133,21 @@
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="32"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="54"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
       <c r="U104" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4183,21 +4158,21 @@
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="32"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54"/>
-      <c r="S105" s="54"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="66"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
       <c r="U105" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4208,21 +4183,21 @@
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="30"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="32"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="54"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="66"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="51"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
       <c r="U106" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4233,21 +4208,21 @@
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="30"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="32"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="54"/>
-      <c r="P107" s="54"/>
-      <c r="Q107" s="54"/>
-      <c r="R107" s="54"/>
-      <c r="S107" s="54"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
       <c r="U107" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4258,21 +4233,21 @@
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="32"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="54"/>
-      <c r="P108" s="54"/>
-      <c r="Q108" s="54"/>
-      <c r="R108" s="54"/>
-      <c r="S108" s="54"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="51"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
       <c r="U108" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4283,21 +4258,21 @@
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="32"/>
-      <c r="K109" s="57"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="54"/>
-      <c r="P109" s="54"/>
-      <c r="Q109" s="54"/>
-      <c r="R109" s="54"/>
-      <c r="S109" s="54"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="54"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
       <c r="U109" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4308,21 +4283,21 @@
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="57"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="54"/>
-      <c r="P110" s="54"/>
-      <c r="Q110" s="54"/>
-      <c r="R110" s="54"/>
-      <c r="S110" s="54"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="54"/>
+      <c r="L110" s="51"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
       <c r="U110" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4333,21 +4308,21 @@
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="30"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
-      <c r="S111" s="54"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
+      <c r="R111" s="51"/>
+      <c r="S111" s="51"/>
       <c r="U111" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4358,21 +4333,21 @@
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="30"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="32"/>
-      <c r="K112" s="57"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="54"/>
-      <c r="O112" s="54"/>
-      <c r="P112" s="54"/>
-      <c r="Q112" s="54"/>
-      <c r="R112" s="54"/>
-      <c r="S112" s="54"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="54"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
       <c r="U112" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4383,21 +4358,21 @@
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="30"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="32"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="54"/>
-      <c r="O113" s="54"/>
-      <c r="P113" s="54"/>
-      <c r="Q113" s="54"/>
-      <c r="R113" s="54"/>
-      <c r="S113" s="54"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="54"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
       <c r="U113" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4408,21 +4383,21 @@
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="32"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="54"/>
-      <c r="O114" s="54"/>
-      <c r="P114" s="54"/>
-      <c r="Q114" s="54"/>
-      <c r="R114" s="54"/>
-      <c r="S114" s="54"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="51"/>
       <c r="U114" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4433,21 +4408,21 @@
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="30"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="32"/>
-      <c r="K115" s="57"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
-      <c r="O115" s="54"/>
-      <c r="P115" s="54"/>
-      <c r="Q115" s="54"/>
-      <c r="R115" s="54"/>
-      <c r="S115" s="54"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
       <c r="U115" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4458,21 +4433,21 @@
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="30"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="32"/>
-      <c r="K116" s="57"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
-      <c r="O116" s="54"/>
-      <c r="P116" s="54"/>
-      <c r="Q116" s="54"/>
-      <c r="R116" s="54"/>
-      <c r="S116" s="54"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="51"/>
       <c r="U116" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4483,21 +4458,21 @@
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="30"/>
-      <c r="G117" s="30"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="32"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="54"/>
-      <c r="O117" s="54"/>
-      <c r="P117" s="54"/>
-      <c r="Q117" s="54"/>
-      <c r="R117" s="54"/>
-      <c r="S117" s="54"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="51"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="51"/>
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="51"/>
+      <c r="R117" s="51"/>
+      <c r="S117" s="51"/>
       <c r="U117" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4508,21 +4483,21 @@
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="30"/>
-      <c r="G118" s="30"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="32"/>
-      <c r="K118" s="57"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-      <c r="O118" s="54"/>
-      <c r="P118" s="54"/>
-      <c r="Q118" s="54"/>
-      <c r="R118" s="54"/>
-      <c r="S118" s="54"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="51"/>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
+      <c r="R118" s="51"/>
+      <c r="S118" s="51"/>
       <c r="U118" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4533,21 +4508,21 @@
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="30"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="32"/>
-      <c r="K119" s="57"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
-      <c r="O119" s="54"/>
-      <c r="P119" s="54"/>
-      <c r="Q119" s="54"/>
-      <c r="R119" s="54"/>
-      <c r="S119" s="54"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="51"/>
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="51"/>
+      <c r="R119" s="51"/>
+      <c r="S119" s="51"/>
       <c r="U119" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4558,63 +4533,456 @@
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="32"/>
-      <c r="K120" s="57"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="54"/>
-      <c r="O120" s="54"/>
-      <c r="P120" s="54"/>
-      <c r="Q120" s="54"/>
-      <c r="R120" s="54"/>
-      <c r="S120" s="54"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="66"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="51"/>
+      <c r="Q120" s="51"/>
+      <c r="R120" s="51"/>
+      <c r="S120" s="51"/>
     </row>
     <row r="121" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="32"/>
-      <c r="K121" s="57"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="54"/>
-      <c r="O121" s="54"/>
-      <c r="P121" s="54"/>
-      <c r="Q121" s="54"/>
-      <c r="R121" s="54"/>
-      <c r="S121" s="54"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="51"/>
+      <c r="N121" s="51"/>
+      <c r="O121" s="51"/>
+      <c r="P121" s="51"/>
+      <c r="Q121" s="51"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="51"/>
     </row>
     <row r="122" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="30"/>
-      <c r="G122" s="30"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="32"/>
-      <c r="K122" s="57"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-      <c r="O122" s="54"/>
-      <c r="P122" s="54"/>
-      <c r="Q122" s="54"/>
-      <c r="R122" s="54"/>
-      <c r="S122" s="54"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="51"/>
+      <c r="N122" s="51"/>
+      <c r="O122" s="51"/>
+      <c r="P122" s="51"/>
+      <c r="Q122" s="51"/>
+      <c r="R122" s="51"/>
+      <c r="S122" s="51"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J123" s="67"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J124" s="67"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J125" s="67"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J126" s="67"/>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J127" s="67"/>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J128" s="67"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J129" s="67"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J130" s="67"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J131" s="67"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J132" s="67"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J133" s="67"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J134" s="67"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J135" s="67"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J136" s="67"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J137" s="67"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J138" s="67"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J139" s="67"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J140" s="67"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J141" s="67"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J142" s="67"/>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J143" s="67"/>
+    </row>
+    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J144" s="67"/>
+    </row>
+    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J145" s="67"/>
+    </row>
+    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J146" s="67"/>
+    </row>
+    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J147" s="67"/>
+    </row>
+    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J148" s="67"/>
+    </row>
+    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J149" s="67"/>
+    </row>
+    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J150" s="67"/>
+    </row>
+    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J151" s="67"/>
+    </row>
+    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J152" s="67"/>
+    </row>
+    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J153" s="67"/>
+    </row>
+    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J154" s="67"/>
+    </row>
+    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J155" s="67"/>
+    </row>
+    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J156" s="67"/>
+    </row>
+    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J157" s="67"/>
+    </row>
+    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J158" s="67"/>
+    </row>
+    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J159" s="67"/>
+    </row>
+    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J160" s="67"/>
+    </row>
+    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J161" s="67"/>
+    </row>
+    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J162" s="67"/>
+    </row>
+    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J163" s="67"/>
+    </row>
+    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J164" s="67"/>
+    </row>
+    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J165" s="67"/>
+    </row>
+    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J166" s="67"/>
+    </row>
+    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J167" s="67"/>
+    </row>
+    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J168" s="67"/>
+    </row>
+    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J169" s="67"/>
+    </row>
+    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J170" s="67"/>
+    </row>
+    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J171" s="67"/>
+    </row>
+    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J172" s="67"/>
+    </row>
+    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J173" s="67"/>
+    </row>
+    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J174" s="67"/>
+    </row>
+    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J175" s="67"/>
+    </row>
+    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J176" s="67"/>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J177" s="67"/>
+    </row>
+    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J178" s="67"/>
+    </row>
+    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J179" s="67"/>
+    </row>
+    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J180" s="67"/>
+    </row>
+    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J181" s="67"/>
+    </row>
+    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J182" s="67"/>
+    </row>
+    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J183" s="67"/>
+    </row>
+    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J184" s="67"/>
+    </row>
+    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J185" s="67"/>
+    </row>
+    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J186" s="67"/>
+    </row>
+    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J187" s="67"/>
+    </row>
+    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J188" s="67"/>
+    </row>
+    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J189" s="67"/>
+    </row>
+    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J190" s="67"/>
+    </row>
+    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J191" s="67"/>
+    </row>
+    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J192" s="67"/>
+    </row>
+    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J193" s="67"/>
+    </row>
+    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J194" s="67"/>
+    </row>
+    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J195" s="67"/>
+    </row>
+    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J196" s="67"/>
+    </row>
+    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J197" s="67"/>
+    </row>
+    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J198" s="67"/>
+    </row>
+    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J199" s="67"/>
+    </row>
+    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J200" s="67"/>
+    </row>
+    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J201" s="67"/>
+    </row>
+    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J202" s="67"/>
+    </row>
+    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J203" s="67"/>
+    </row>
+    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J204" s="67"/>
+    </row>
+    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J205" s="67"/>
+    </row>
+    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J206" s="67"/>
+    </row>
+    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J207" s="67"/>
+    </row>
+    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J208" s="67"/>
+    </row>
+    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J209" s="67"/>
+    </row>
+    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J210" s="67"/>
+    </row>
+    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J211" s="67"/>
+    </row>
+    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J212" s="67"/>
+    </row>
+    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J213" s="67"/>
+    </row>
+    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J214" s="67"/>
+    </row>
+    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J215" s="67"/>
+    </row>
+    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J216" s="67"/>
+    </row>
+    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J217" s="67"/>
+    </row>
+    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J218" s="67"/>
+    </row>
+    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J219" s="67"/>
+    </row>
+    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J220" s="67"/>
+    </row>
+    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J221" s="67"/>
+    </row>
+    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J222" s="67"/>
+    </row>
+    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J223" s="67"/>
+    </row>
+    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J224" s="67"/>
+    </row>
+    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J225" s="67"/>
+    </row>
+    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J226" s="67"/>
+    </row>
+    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J227" s="67"/>
+    </row>
+    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J228" s="67"/>
+    </row>
+    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J229" s="67"/>
+    </row>
+    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J230" s="67"/>
+    </row>
+    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J231" s="67"/>
+    </row>
+    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J232" s="67"/>
+    </row>
+    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J233" s="67"/>
+    </row>
+    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J234" s="67"/>
+    </row>
+    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J235" s="67"/>
+    </row>
+    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J236" s="67"/>
+    </row>
+    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J237" s="67"/>
+    </row>
+    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J238" s="67"/>
+    </row>
+    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J239" s="67"/>
+    </row>
+    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J240" s="67"/>
+    </row>
+    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J241" s="67"/>
+    </row>
+    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J242" s="67"/>
+    </row>
+    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J243" s="67"/>
+    </row>
+    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J244" s="67"/>
+    </row>
+    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J245" s="67"/>
+    </row>
+    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J246" s="67"/>
+    </row>
+    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J247" s="67"/>
+    </row>
+    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J248" s="67"/>
+    </row>
+    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J249" s="67"/>
+    </row>
+    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J250" s="67"/>
+    </row>
+    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J251" s="67"/>
+    </row>
+    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J252" s="67"/>
+    </row>
+    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J253" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4667,10 +5035,10 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -4687,13 +5055,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="F5">
@@ -4707,13 +5075,13 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>27</v>
       </c>
       <c r="F6">
@@ -4727,13 +5095,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="43" t="s">
         <v>30</v>
       </c>
       <c r="F7">
@@ -4747,11 +5115,11 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="E8" s="46" t="s">
+      <c r="C8" s="44"/>
+      <c r="E8" s="43" t="s">
         <v>33</v>
       </c>
       <c r="F8">
@@ -4765,8 +5133,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="44"/>
-      <c r="E9" s="46" t="s">
+      <c r="B9" s="41"/>
+      <c r="E9" s="43" t="s">
         <v>35</v>
       </c>
       <c r="F9">
@@ -4780,8 +5148,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="41"/>
+      <c r="E10" s="43" t="s">
         <v>36</v>
       </c>
       <c r="F10">
@@ -4795,8 +5163,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="44"/>
-      <c r="E11" s="46" t="s">
+      <c r="B11" s="41"/>
+      <c r="E11" s="43" t="s">
         <v>37</v>
       </c>
       <c r="F11">
@@ -4810,7 +5178,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="43" t="s">
         <v>38</v>
       </c>
       <c r="F12">
@@ -4824,7 +5192,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
       <c r="F13">
@@ -4838,7 +5206,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="43" t="s">
         <v>40</v>
       </c>
       <c r="F14">
@@ -4852,7 +5220,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="43" t="s">
         <v>41</v>
       </c>
       <c r="F15">
@@ -4866,7 +5234,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="43" t="s">
         <v>42</v>
       </c>
       <c r="F16">
@@ -4880,7 +5248,7 @@
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="43" t="s">
         <v>43</v>
       </c>
       <c r="F17">
@@ -4894,117 +5262,117 @@
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="44">
         <v>3</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="44">
         <v>30000</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="44">
         <v>3</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="44">
         <v>30000</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="44">
         <v>3</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="44">
         <v>30000</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="44">
         <v>5</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="44">
         <v>30000</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="43" t="s">
         <v>50</v>
       </c>
       <c r="F31">
@@ -5015,7 +5383,7 @@
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="43" t="s">
         <v>51</v>
       </c>
       <c r="F32">
@@ -5026,28 +5394,28 @@
       </c>
     </row>
     <row r="47" spans="10:14" x14ac:dyDescent="0.3">
-      <c r="J47" s="82" t="s">
+      <c r="J47" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="L47" s="49" t="s">
+      <c r="L47" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="49" t="s">
+      <c r="M47" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="N47" s="49" t="s">
+      <c r="N47" s="46" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="48" spans="10:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J48" s="83"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
